--- a/papers_processed/Paper33_data.xlsx
+++ b/papers_processed/Paper33_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385B3E3-B9C1-4267-919F-4DD815C3226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF13BC4-B63D-46EA-98F2-EAC92A7327FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088D461C-157E-F441-9AC6-3D5D5186CE3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088D461C-157E-F441-9AC6-3D5D5186CE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,15 +30,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -80,9 +60,6 @@
     <t>climate</t>
   </si>
   <si>
-    <t>soil type</t>
-  </si>
-  <si>
     <t>10.1016/j.agee.2016.06.038</t>
   </si>
   <si>
@@ -135,6 +112,18 @@
   </si>
   <si>
     <t>N2O reduction</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>soil type IGNORE</t>
   </si>
 </sst>
 </file>
@@ -538,7 +527,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,63 +566,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
         <v>7.0000000000000007E-2</v>
@@ -642,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3">
         <v>-0.39900000000000002</v>
@@ -651,30 +640,30 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
         <v>0.02</v>
@@ -683,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>-0.25</v>
@@ -692,30 +681,30 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3">
         <v>0.01</v>
@@ -724,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3">
         <v>-0.25900000000000001</v>
@@ -733,30 +722,30 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6">
         <v>0.1</v>
@@ -765,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3">
         <v>-0.378</v>
@@ -774,30 +763,30 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7" s="6">
         <v>0.05</v>
@@ -806,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K7" s="3">
         <v>-0.27400000000000002</v>
@@ -815,30 +804,30 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -847,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <v>-0.34599999999999997</v>
@@ -856,30 +845,30 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H9" s="9">
         <v>7.0000000000000007E-2</v>
@@ -888,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3">
         <v>-0.28000000000000003</v>
@@ -897,30 +886,30 @@
         <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H10" s="9">
         <v>0.03</v>
@@ -929,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3">
         <v>-0.28000000000000003</v>
@@ -938,30 +927,30 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" s="9">
         <v>-0.08</v>
@@ -970,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K11" s="3">
         <v>-0.34200000000000003</v>
@@ -979,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/papers_processed/Paper33_data.xlsx
+++ b/papers_processed/Paper33_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF13BC4-B63D-46EA-98F2-EAC92A7327FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0421A034-9666-4560-A110-01A26CEA2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088D461C-157E-F441-9AC6-3D5D5186CE3A}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{088D461C-157E-F441-9AC6-3D5D5186CE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -57,45 +54,18 @@
     <t>carbon_footprint_information_page</t>
   </si>
   <si>
-    <t>climate</t>
-  </si>
-  <si>
     <t>10.1016/j.agee.2016.06.038</t>
   </si>
   <si>
-    <t>Arid (aridity index ≤ 0.65)</t>
-  </si>
-  <si>
-    <t>Inhibitors (IS: NI, UI, UI+NI)</t>
-  </si>
-  <si>
     <t>Conventional N Fertilizer</t>
   </si>
   <si>
     <t>Wheat, Maize, Barley</t>
   </si>
   <si>
-    <t>Humid (aridity index &gt; 0.65)</t>
-  </si>
-  <si>
-    <t>Slow/Controlled-Release Fertilizer (S/CRF)</t>
-  </si>
-  <si>
-    <t>soil pH</t>
-  </si>
-  <si>
     <t>Inhibitors (IS)</t>
   </si>
   <si>
-    <t>Coarse (sandy loam, sandy clay loam, loamy sand)</t>
-  </si>
-  <si>
-    <t>Medium (clay loam, loam, silt clay loam, silt, silt loam)</t>
-  </si>
-  <si>
-    <t>Fine (clay, silt clay, sandy clay)</t>
-  </si>
-  <si>
     <t>soil ph</t>
   </si>
   <si>
@@ -105,25 +75,28 @@
     <t xml:space="preserve">&lt;6.5 </t>
   </si>
   <si>
-    <t xml:space="preserve">6.5-7.5 </t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>N2O reduction</t>
   </si>
   <si>
-    <t>farming practice</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
-    <t>selection type</t>
-  </si>
-  <si>
-    <t>soil type IGNORE</t>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>"+10"</t>
+  </si>
+  <si>
+    <t>"+5"</t>
   </si>
 </sst>
 </file>
@@ -139,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +131,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -177,19 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4164E0D9-A48F-7D43-BC00-F4AB825FB754}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,427 +509,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-0.378</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3">
-        <v>-0.39900000000000002</v>
+      <c r="K3" s="2">
+        <v>-0.27400000000000002</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3">
-        <v>-0.25</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-0.25900000000000001</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3">
-        <v>-0.378</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-0.27400000000000002</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-0.34599999999999997</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I9" s="8">
-        <v>6</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9">
-        <v>-0.08</v>
-      </c>
-      <c r="I11" s="8">
-        <v>6</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-0.34200000000000003</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
